--- a/B21-2-1802.xlsx
+++ b/B21-2-1802.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63AEC7-C9D1-481E-BF84-C8C448FF4E1E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F602CB8-F3AE-473A-B210-1BB1959F4F07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="99">
   <si>
     <t>购买</t>
   </si>
@@ -165,11 +165,6 @@
     <t>基础装修</t>
   </si>
   <si>
-    <t xml:space="preserve">由大连益丰装修公司承接装修业务
-1. 负责整体设计布局；
-2. </t>
-  </si>
-  <si>
     <t>瓷砖</t>
   </si>
   <si>
@@ -265,13 +260,88 @@
   <si>
     <t>主卫：海尔50升，1249元；免费送装；
 客卫：AO史密斯60升H10V， 4716元；免费送装</t>
+  </si>
+  <si>
+    <t>由大连益丰装修公司承接装修业务
+1. 负责整体设计布局；
+2. 地板，地砖和墙面磁砖铺设；
+3. 鞋柜，卧室衣柜等木工现场打造；</t>
+  </si>
+  <si>
+    <t>阳台封闭</t>
+  </si>
+  <si>
+    <t>350元/平米</t>
+  </si>
+  <si>
+    <t>12.9m²</t>
+  </si>
+  <si>
+    <t>客厅+次卧室阳台：
+1.4厚材料框架，5厚度全尺寸双层玻璃， 雅尔五金件（合叶，把手等）；</t>
+  </si>
+  <si>
+    <t>窗户</t>
+  </si>
+  <si>
+    <t>全屋纱窗</t>
+  </si>
+  <si>
+    <t>100元/个</t>
+  </si>
+  <si>
+    <t>精钢网面，全304不锈钢网，防坠， 不锈；</t>
+  </si>
+  <si>
+    <t>整体优惠30元；</t>
+  </si>
+  <si>
+    <t>12月2号设计后，补砖：
+900*900：8片； 
+800*800：3片；
+打94折后抹零：
+(185*8 + 100*3) * 0.94 = 1673;
+1673 - 73 = 1600;</t>
+  </si>
+  <si>
+    <t>水电改造</t>
+  </si>
+  <si>
+    <t>强电</t>
+  </si>
+  <si>
+    <t>45元/米</t>
+  </si>
+  <si>
+    <t>134.15m</t>
+  </si>
+  <si>
+    <t>弱电</t>
+  </si>
+  <si>
+    <t>35元/米</t>
+  </si>
+  <si>
+    <t>26.6m</t>
+  </si>
+  <si>
+    <t>水管</t>
+  </si>
+  <si>
+    <t>65元/米</t>
+  </si>
+  <si>
+    <t>81.9m</t>
+  </si>
+  <si>
+    <t>抹零优惠91.25元</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,22 +373,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +433,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -446,11 +530,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -488,31 +598,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,27 +654,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -823,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:J48"/>
+  <dimension ref="C3:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,11 +1036,11 @@
         <v>27</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -916,7 +1060,7 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="39" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -936,7 +1080,7 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
@@ -958,7 +1102,7 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
@@ -976,7 +1120,7 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1000,7 +1144,7 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="35"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1022,7 +1166,7 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="35"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1039,8 +1183,8 @@
       <c r="I20" s="21"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="3:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="35"/>
+    <row r="21" spans="3:10" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="47"/>
       <c r="D21" s="12" t="s">
         <v>45</v>
       </c>
@@ -1051,15 +1195,15 @@
         <v>60000</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J21" s="14">
         <v>60000</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="69" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -1075,14 +1219,14 @@
       <c r="I22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="33">
         <f>SUM(H22:H28)</f>
         <v>1842</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="35"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="3" t="s">
         <v>33</v>
       </c>
@@ -1092,27 +1236,27 @@
         <v>1069</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="30"/>
+        <v>65</v>
+      </c>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="35"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="30"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="35"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="3" t="s">
         <v>35</v>
       </c>
@@ -1120,11 +1264,11 @@
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="30"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="35"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="3" t="s">
         <v>36</v>
       </c>
@@ -1132,50 +1276,50 @@
       <c r="G26" s="4"/>
       <c r="H26" s="7"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="30"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="35"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="7">
         <v>773</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="35"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="7"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="30"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="35"/>
-      <c r="D29" s="41"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="19"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="42"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="3:10" ht="35.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="35"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="43" t="s">
         <v>37</v>
       </c>
@@ -1188,16 +1332,16 @@
         <v>1147</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="40">
+        <v>68</v>
+      </c>
+      <c r="J30" s="33">
         <f>SUM(H30:H36)</f>
         <v>8479</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="35"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1205,11 +1349,11 @@
       <c r="G31" s="3"/>
       <c r="H31" s="7"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="30"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="3:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="35"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1219,13 +1363,13 @@
         <v>5965</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="30"/>
+        <v>76</v>
+      </c>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="3:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="35"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="3" t="s">
         <v>42</v>
       </c>
@@ -1235,13 +1379,13 @@
         <v>1367</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="30"/>
+        <v>67</v>
+      </c>
+      <c r="J33" s="34"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="35"/>
-      <c r="D34" s="31"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="3" t="s">
         <v>43</v>
       </c>
@@ -1249,11 +1393,11 @@
       <c r="G34" s="3"/>
       <c r="H34" s="7"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="30"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="35"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="3" t="s">
         <v>44</v>
       </c>
@@ -1261,220 +1405,354 @@
       <c r="G35" s="3"/>
       <c r="H35" s="7"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="30"/>
+      <c r="J35" s="34"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="35"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="7"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="30"/>
+      <c r="J36" s="34"/>
     </row>
     <row r="37" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="35"/>
-      <c r="D37" s="44"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="19"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="42"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="38" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="35"/>
-      <c r="D38" s="39" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="G38" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="H38" s="10">
         <f>185*62</f>
         <v>11470</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J38" s="40">
-        <v>21200</v>
+        <v>59</v>
+      </c>
+      <c r="J38" s="33">
+        <f>21200+1600</f>
+        <v>22800</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="35"/>
-      <c r="D39" s="29"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H39" s="7">
         <f>100*88</f>
         <v>8800</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="J39" s="34"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="35"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H40" s="7">
         <f>100*8</f>
         <v>800</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="J40" s="30"/>
+        <v>60</v>
+      </c>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="35"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="H41" s="7">
         <f>15*100</f>
         <v>1500</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="J41" s="30"/>
-    </row>
-    <row r="42" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="35"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19">
+        <v>64</v>
+      </c>
+      <c r="J41" s="34"/>
+    </row>
+    <row r="42" spans="3:10" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="C42" s="47"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58">
+        <v>1600</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="59"/>
+    </row>
+    <row r="43" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="47"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19">
         <f>SUM(H38:H41)</f>
         <v>22570</v>
       </c>
-      <c r="I42" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="35"/>
-      <c r="D43" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="I43" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="47"/>
+      <c r="D44" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="46"/>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="35"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="32"/>
-    </row>
-    <row r="45" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="35"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="36"/>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="47"/>
       <c r="D45" s="44"/>
-      <c r="E45" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="47"/>
-    </row>
-    <row r="46" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="35"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="35"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="36"/>
-      <c r="D48" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="33">
-        <f>SUM(J14:J47)</f>
-        <v>91521</v>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="37"/>
+    </row>
+    <row r="46" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="47"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="38"/>
+    </row>
+    <row r="47" spans="3:10" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="47"/>
+      <c r="D47" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" s="30">
+        <f>12.9*350-15</f>
+        <v>4500</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="47"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="20">
+        <v>9</v>
+      </c>
+      <c r="H48" s="49">
+        <f>100*9</f>
+        <v>900</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="47"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" s="55">
+        <f>SUM(H47:H48)-30</f>
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="47"/>
+      <c r="D50" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="64">
+        <f>134.15*45</f>
+        <v>6036.75</v>
+      </c>
+      <c r="I50" s="63"/>
+      <c r="J50" s="64"/>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="47"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="62">
+        <f>26.6*35</f>
+        <v>931</v>
+      </c>
+      <c r="I51" s="61"/>
+      <c r="J51" s="62"/>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="62">
+        <f>81.9*65</f>
+        <v>5323.5</v>
+      </c>
+      <c r="I52" s="61"/>
+      <c r="J52" s="62"/>
+    </row>
+    <row r="53" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="47"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="55">
+        <f>SUM(H50:H52)-91.25</f>
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="48"/>
+      <c r="D54" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="66">
+        <f>SUM(J14:J53)</f>
+        <v>110691</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="J22:J29"/>
     <mergeCell ref="J30:J37"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="J38:J43"/>
+    <mergeCell ref="J44:J46"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="D30:D37"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C18:C48"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C18:C54"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/B21-2-1802.xlsx
+++ b/B21-2-1802.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchsh\Desktop\Dec\b21021802\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F244CD-0C2A-4026-94C4-41AC9CDF2289}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D22CD8-C11A-46F5-A39E-EA3013F562E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="151">
   <si>
     <t>购买</t>
   </si>
@@ -266,12 +266,6 @@
     <t>地板</t>
   </si>
   <si>
-    <t>大自然实木复合</t>
-  </si>
-  <si>
-    <t>309元/平</t>
-  </si>
-  <si>
     <t>窗户</t>
   </si>
   <si>
@@ -455,18 +449,70 @@
   </si>
   <si>
     <t>WH6</t>
+  </si>
+  <si>
+    <t>285元/平</t>
+  </si>
+  <si>
+    <t>39.53平</t>
+  </si>
+  <si>
+    <t>86.4/支</t>
+  </si>
+  <si>
+    <t>40支</t>
+  </si>
+  <si>
+    <t>踢脚线</t>
+  </si>
+  <si>
+    <t>实木着色踢脚线-素白色， 2000*85*15</t>
+  </si>
+  <si>
+    <t>大自然实木复合-山核桃-摩卡胡桃 1210*165*14</t>
+  </si>
+  <si>
+    <t>铝膜带散热孔地膜地垫</t>
+  </si>
+  <si>
+    <t>9元/平方</t>
+  </si>
+  <si>
+    <t>42平</t>
+  </si>
+  <si>
+    <t>瓦克胶</t>
+  </si>
+  <si>
+    <t>25元/瓶</t>
+  </si>
+  <si>
+    <t>10瓶</t>
+  </si>
+  <si>
+    <t>杂项费用</t>
+  </si>
+  <si>
+    <t>8透明，2瓷白</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,20 +873,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,174 +895,179 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1298,17 +1349,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:J62"/>
+  <dimension ref="C3:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H27"/>
+    <sheetView tabSelected="1" topLeftCell="D45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="54.28515625" customWidth="1"/>
@@ -1388,11 +1439,11 @@
       <c r="H14" s="23">
         <v>2145315</v>
       </c>
-      <c r="I14" s="52"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="3:10" ht="18.75">
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="74" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -1408,11 +1459,11 @@
       <c r="H15" s="26">
         <v>3705</v>
       </c>
-      <c r="I15" s="53"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="3:10" ht="18.75">
-      <c r="C16" s="79"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="17" t="s">
         <v>19</v>
       </c>
@@ -1428,13 +1479,13 @@
       <c r="H16" s="28">
         <v>500</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="46" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="28"/>
     </row>
     <row r="17" spans="3:10" ht="18.75">
-      <c r="C17" s="80"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="15" t="s">
         <v>22</v>
       </c>
@@ -1448,11 +1499,11 @@
       <c r="H17" s="23">
         <v>3490</v>
       </c>
-      <c r="I17" s="52"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="3:10" ht="18.75">
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="77" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -1467,19 +1518,19 @@
       <c r="G18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="26">
         <v>700</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="91">
+      <c r="J18" s="94">
         <f>SUM(H18:H21)</f>
         <v>61320</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="18.75">
-      <c r="C19" s="82"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1492,75 +1543,75 @@
       <c r="G19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="28">
         <v>600</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="92"/>
+      <c r="J19" s="95"/>
     </row>
     <row r="20" spans="3:10" ht="18.75">
-      <c r="C20" s="82"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="27">
         <v>2</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="28">
         <v>20</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="92"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="21" spans="3:10" ht="46.5">
-      <c r="C21" s="82"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="33">
+      <c r="H21" s="23">
         <v>60000</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="92"/>
+      <c r="J21" s="95"/>
     </row>
     <row r="22" spans="3:10" ht="68.25">
-      <c r="C22" s="82"/>
-      <c r="D22" s="84" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="56" t="s">
+      <c r="H22" s="31"/>
+      <c r="I22" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="93">
+      <c r="J22" s="96">
         <f>SUM(H22:H30)</f>
         <v>16172</v>
       </c>
     </row>
     <row r="23" spans="3:10">
-      <c r="C23" s="82"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="37" t="s">
+      <c r="C23" s="78"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="27"/>
@@ -1568,15 +1619,15 @@
       <c r="H23" s="28">
         <v>1069</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I23" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="94"/>
+      <c r="J23" s="97"/>
     </row>
     <row r="24" spans="3:10">
-      <c r="C24" s="82"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="37" t="s">
+      <c r="C24" s="78"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="29" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="27"/>
@@ -1584,112 +1635,112 @@
       <c r="H24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="94"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="97"/>
     </row>
     <row r="25" spans="3:10">
-      <c r="C25" s="82"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="100" t="s">
+      <c r="C25" s="78"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="88">
+        <v>14330</v>
+      </c>
+      <c r="I25" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="106" t="s">
+      <c r="J25" s="97"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="78"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="97"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="78"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="96">
-        <v>14330</v>
-      </c>
-      <c r="I25" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="94"/>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="82"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="94"/>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="82"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="106" t="s">
-        <v>137</v>
-      </c>
       <c r="G27" s="27"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="94"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="97"/>
     </row>
     <row r="28" spans="3:10">
-      <c r="C28" s="82"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="37" t="s">
+      <c r="C28" s="78"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="29" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="94"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="97"/>
     </row>
     <row r="29" spans="3:10">
-      <c r="C29" s="82"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="37" t="s">
+      <c r="C29" s="78"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="32">
         <v>773</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="29">
         <v>1</v>
       </c>
       <c r="H29" s="28">
         <v>773</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="94"/>
+      <c r="J29" s="97"/>
     </row>
     <row r="30" spans="3:10">
-      <c r="C30" s="82"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="94"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="97"/>
     </row>
     <row r="31" spans="3:10">
-      <c r="C31" s="82"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="39" t="s">
+      <c r="C31" s="78"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="95"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="98"/>
     </row>
     <row r="32" spans="3:10" ht="34.5">
-      <c r="C32" s="82"/>
-      <c r="D32" s="84" t="s">
+      <c r="C32" s="78"/>
+      <c r="D32" s="80" t="s">
         <v>45</v>
       </c>
       <c r="E32" s="24" t="s">
@@ -1700,110 +1751,110 @@
       <c r="H32" s="26">
         <v>1147</v>
       </c>
-      <c r="I32" s="60" t="s">
+      <c r="I32" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="93">
+      <c r="J32" s="96">
         <f>SUM(H32:H38)</f>
         <v>8479</v>
       </c>
     </row>
     <row r="33" spans="3:10">
-      <c r="C33" s="82"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="37" t="s">
+      <c r="C33" s="78"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="94"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="97"/>
     </row>
     <row r="34" spans="3:10" ht="23.25">
-      <c r="C34" s="82"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="37" t="s">
+      <c r="C34" s="78"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="28">
         <v>5965</v>
       </c>
-      <c r="I34" s="62" t="s">
+      <c r="I34" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="94"/>
+      <c r="J34" s="97"/>
     </row>
     <row r="35" spans="3:10" ht="23.25">
-      <c r="C35" s="82"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="37" t="s">
+      <c r="C35" s="78"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="28">
         <v>1367</v>
       </c>
-      <c r="I35" s="62" t="s">
+      <c r="I35" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="J35" s="94"/>
+      <c r="J35" s="97"/>
     </row>
     <row r="36" spans="3:10">
-      <c r="C36" s="82"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="37" t="s">
+      <c r="C36" s="78"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="94"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="97"/>
     </row>
     <row r="37" spans="3:10">
-      <c r="C37" s="82"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="37" t="s">
+      <c r="C37" s="78"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="94"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="97"/>
     </row>
     <row r="38" spans="3:10">
-      <c r="C38" s="82"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="94"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="97"/>
     </row>
     <row r="39" spans="3:10">
-      <c r="C39" s="82"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="39" t="s">
+      <c r="C39" s="78"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="95"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="98"/>
     </row>
     <row r="40" spans="3:10">
-      <c r="C40" s="82"/>
-      <c r="D40" s="84" t="s">
+      <c r="C40" s="78"/>
+      <c r="D40" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="24" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="24" t="s">
@@ -1816,81 +1867,81 @@
         <f>185*62</f>
         <v>11470</v>
       </c>
-      <c r="I40" s="63" t="s">
+      <c r="I40" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="J40" s="93">
+      <c r="J40" s="96">
         <f>21200+1600</f>
         <v>22800</v>
       </c>
     </row>
     <row r="41" spans="3:10">
-      <c r="C41" s="82"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="31" t="s">
+      <c r="C41" s="78"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H41" s="28">
         <f>100*88</f>
         <v>8800</v>
       </c>
-      <c r="I41" s="61" t="s">
+      <c r="I41" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="J41" s="94"/>
+      <c r="J41" s="97"/>
     </row>
     <row r="42" spans="3:10">
-      <c r="C42" s="82"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="31" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="29" t="s">
         <v>65</v>
       </c>
       <c r="H42" s="28">
         <f>100*8</f>
         <v>800</v>
       </c>
-      <c r="I42" s="61" t="s">
+      <c r="I42" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="J42" s="94"/>
+      <c r="J42" s="97"/>
     </row>
     <row r="43" spans="3:10">
-      <c r="C43" s="82"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="31" t="s">
+      <c r="C43" s="78"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="37" t="s">
+      <c r="G43" s="29" t="s">
         <v>69</v>
       </c>
       <c r="H43" s="28">
         <f>15*100</f>
         <v>1500</v>
       </c>
-      <c r="I43" s="61" t="s">
+      <c r="I43" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="94"/>
+      <c r="J43" s="97"/>
     </row>
     <row r="44" spans="3:10" ht="68.25">
-      <c r="C44" s="82"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="32" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="21" t="s">
         <v>71</v>
       </c>
       <c r="F44" s="21"/>
@@ -1898,293 +1949,369 @@
       <c r="H44" s="23">
         <v>1600</v>
       </c>
-      <c r="I44" s="64" t="s">
+      <c r="I44" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="J44" s="96"/>
+      <c r="J44" s="88"/>
     </row>
     <row r="45" spans="3:10">
-      <c r="C45" s="82"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="39" t="s">
+      <c r="C45" s="78"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="40">
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34">
         <f>SUM(H40:H43)</f>
         <v>22570</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="J45" s="95"/>
-    </row>
-    <row r="46" spans="3:10">
-      <c r="C46" s="82"/>
-      <c r="D46" s="84" t="s">
+      <c r="J45" s="98"/>
+    </row>
+    <row r="46" spans="3:10" ht="15.75" thickTop="1">
+      <c r="C46" s="78"/>
+      <c r="D46" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="99">
+        <f>285*39.53</f>
+        <v>11266.050000000001</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46" s="100">
+        <f>SUM(H46:H50)</f>
+        <v>15588.050000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" s="78"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="37">
+        <f>86.4*40</f>
+        <v>3456</v>
+      </c>
+      <c r="I47" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="J47" s="101"/>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" s="78"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" s="37">
+        <f>9*42</f>
+        <v>378</v>
+      </c>
+      <c r="I48" s="58"/>
+      <c r="J48" s="101"/>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="78"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="37">
+        <f>25*10</f>
+        <v>250</v>
+      </c>
+      <c r="I49" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="101"/>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="78"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29">
+        <f>15588-15350</f>
+        <v>238</v>
+      </c>
+      <c r="I50" s="53"/>
+      <c r="J50" s="102"/>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="78"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="103"/>
+    </row>
+    <row r="52" spans="3:10" ht="34.5">
+      <c r="C52" s="78"/>
+      <c r="D52" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="E52" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="97"/>
-    </row>
-    <row r="47" spans="3:10">
-      <c r="C47" s="82"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="98"/>
-    </row>
-    <row r="48" spans="3:10">
-      <c r="C48" s="82"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="99"/>
-    </row>
-    <row r="49" spans="3:10" ht="34.5">
-      <c r="C49" s="82"/>
-      <c r="D49" s="88" t="s">
+      <c r="F52" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="G52" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="26">
+      <c r="H52" s="26">
         <f>12.9*350-15</f>
         <v>4500</v>
       </c>
-      <c r="I49" s="60" t="s">
+      <c r="I52" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="78"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" spans="3:10">
-      <c r="C50" s="82"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="43">
+      <c r="G53" s="36">
         <v>9</v>
       </c>
-      <c r="H50" s="44">
+      <c r="H53" s="37">
         <f>100*9</f>
         <v>900</v>
       </c>
-      <c r="I50" s="66" t="s">
+      <c r="I53" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="36"/>
+    </row>
+    <row r="54" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C54" s="78"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="60">
+        <f>SUM(H52:H53)-30</f>
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="15" customHeight="1" thickTop="1">
+      <c r="C55" s="78"/>
+      <c r="D55" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="J50" s="43"/>
-    </row>
-    <row r="51" spans="3:10">
-      <c r="C51" s="82"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="67" t="s">
+      <c r="E55" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J51" s="68">
-        <f>SUM(H49:H50)-30</f>
-        <v>5370</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10">
-      <c r="C52" s="82"/>
-      <c r="D52" s="88" t="s">
+      <c r="F55" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="G55" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="H52" s="47">
+      <c r="H55" s="40">
         <f>134.15*45</f>
         <v>6036.75</v>
       </c>
-      <c r="I52" s="69"/>
-      <c r="J52" s="47"/>
-    </row>
-    <row r="53" spans="3:10">
-      <c r="C53" s="82"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="48" t="s">
+      <c r="I55" s="61"/>
+      <c r="J55" s="40"/>
+    </row>
+    <row r="56" spans="3:10" ht="15" customHeight="1">
+      <c r="C56" s="78"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="49">
+      <c r="H56" s="42">
         <f>26.6*35</f>
         <v>931</v>
       </c>
-      <c r="I53" s="70"/>
-      <c r="J53" s="49"/>
-    </row>
-    <row r="54" spans="3:10">
-      <c r="C54" s="82"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="48" t="s">
+      <c r="I56" s="62"/>
+      <c r="J56" s="42"/>
+    </row>
+    <row r="57" spans="3:10" ht="15" customHeight="1">
+      <c r="C57" s="78"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H54" s="49">
+      <c r="H57" s="42">
         <f>81.9*65</f>
         <v>5323.5</v>
       </c>
-      <c r="I54" s="70"/>
-      <c r="J54" s="49"/>
-    </row>
-    <row r="55" spans="3:10">
-      <c r="C55" s="82"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="48" t="s">
+      <c r="I57" s="62"/>
+      <c r="J57" s="42"/>
+    </row>
+    <row r="58" spans="3:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C58" s="78"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="71" t="s">
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" s="42">
+        <f>SUM(H55:H57)-91.25</f>
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" ht="15.75" thickTop="1">
+      <c r="C59" s="78"/>
+      <c r="D59" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="J55" s="49">
-        <f>SUM(H52:H54)-91.25</f>
-        <v>12200</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10">
-      <c r="C56" s="82"/>
-      <c r="D56" s="89" t="s">
+      <c r="F59" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="G59" s="24">
+        <v>1</v>
+      </c>
+      <c r="H59" s="26">
+        <v>6488</v>
+      </c>
+      <c r="I59" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="J59" s="40"/>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60" s="78"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="42"/>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61" s="78"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="42"/>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62" s="78"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="42"/>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63" s="78"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C64" s="78"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="42">
+        <f>SUM(H59:H63)</f>
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" ht="24.75" thickTop="1" thickBot="1">
+      <c r="C65" s="79"/>
+      <c r="D65" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G56" s="24">
-        <v>1</v>
-      </c>
-      <c r="H56" s="50">
-        <v>6488</v>
-      </c>
-      <c r="I56" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J56" s="72"/>
-    </row>
-    <row r="57" spans="3:10">
-      <c r="C57" s="82"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="73"/>
-    </row>
-    <row r="58" spans="3:10">
-      <c r="C58" s="82"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="73"/>
-    </row>
-    <row r="59" spans="3:10">
-      <c r="C59" s="82"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="73"/>
-    </row>
-    <row r="60" spans="3:10">
-      <c r="C60" s="82"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="73"/>
-    </row>
-    <row r="61" spans="3:10">
-      <c r="C61" s="82"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="49">
-        <f>SUM(H56:H60)</f>
-        <v>6488</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" ht="23.25">
-      <c r="C62" s="83"/>
-      <c r="D62" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="74">
-        <f>SUM(J14:J61)</f>
-        <v>132829</v>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="63">
+        <f>SUM(J14:J64)</f>
+        <v>148417.04999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2193,22 +2320,22 @@
     <mergeCell ref="J22:J31"/>
     <mergeCell ref="J32:J39"/>
     <mergeCell ref="J40:J45"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="J46:J51"/>
+    <mergeCell ref="D65:I65"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C62"/>
+    <mergeCell ref="C18:C65"/>
     <mergeCell ref="D22:D31"/>
     <mergeCell ref="D32:D39"/>
     <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D64"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="I25:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2230,19 +2357,19 @@
   <sheetData>
     <row r="7" spans="5:9" ht="18.75">
       <c r="E7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="5:9" ht="18.75">
@@ -2250,16 +2377,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="5:9" ht="18.75">
@@ -2267,16 +2394,16 @@
         <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="5:9" ht="18.75">
@@ -2284,14 +2411,14 @@
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="5:9" ht="18.75">
@@ -2299,16 +2426,16 @@
         <v>4</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="27">
@@ -2316,16 +2443,16 @@
         <v>5</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="5:9" ht="18.75">
@@ -2333,16 +2460,16 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="5:9" ht="18.75">
@@ -2350,14 +2477,14 @@
         <v>7</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="27">
@@ -2365,14 +2492,14 @@
         <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="5:9" ht="18.75">
@@ -2380,14 +2507,14 @@
         <v>9</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="27">
@@ -2395,14 +2522,14 @@
         <v>10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="27">
@@ -2410,14 +2537,14 @@
         <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="5:9" ht="18.75">
@@ -2425,14 +2552,14 @@
         <v>12</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="18.75">
@@ -2440,14 +2567,14 @@
         <v>13</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="52.5">
@@ -2455,14 +2582,14 @@
         <v>14</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="6:7">
@@ -2494,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="6:7">
@@ -2502,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
